--- a/Sample_5.xlsx
+++ b/Sample_5.xlsx
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +639,16 @@
         <v>48.69892682926835</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52.54931097560968</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
